--- a/summary/Zambia.xlsx
+++ b/summary/Zambia.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet name="weighted_scores" sheetId="1" r:id="rId1"/>
     <sheet name="demo_total" sheetId="2" r:id="rId2"/>
-    <sheet name="demo_type" sheetId="3" r:id="rId3"/>
-    <sheet name="demo_age" sheetId="4" r:id="rId4"/>
-    <sheet name="demo_gender" sheetId="5" r:id="rId5"/>
+    <sheet name="demo_total_knowRC" sheetId="3" r:id="rId3"/>
+    <sheet name="demo_type" sheetId="4" r:id="rId4"/>
+    <sheet name="demo_age" sheetId="5" r:id="rId5"/>
+    <sheet name="demo_gender" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -405,16 +406,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>266.1092684037069</v>
+        <v>8.099647319989389</v>
       </c>
       <c r="D2">
-        <v>288.1527230780823</v>
+        <v>9.065525244068679</v>
       </c>
       <c r="E2">
-        <v>259.7285015852544</v>
+        <v>8.975108555807331</v>
       </c>
       <c r="F2">
-        <v>252.8357247856021</v>
+        <v>7.825975302364586</v>
       </c>
     </row>
     <row r="3">
@@ -429,16 +430,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>281.2117873213885</v>
+        <v>8.505350939247117</v>
       </c>
       <c r="D3">
-        <v>308.9678399824418</v>
+        <v>9.330969843223643</v>
       </c>
       <c r="E3">
-        <v>315.9729972323328</v>
+        <v>9.224053050223867</v>
       </c>
       <c r="F3">
-        <v>244.4079393346106</v>
+        <v>7.445452522904743</v>
       </c>
     </row>
     <row r="4">
@@ -453,16 +454,16 @@
         </is>
       </c>
       <c r="C4">
-        <v>268.5855859618853</v>
+        <v>8.144037569217609</v>
       </c>
       <c r="D4">
-        <v>301.0748276679361</v>
+        <v>9.379834605303463</v>
       </c>
       <c r="E4">
-        <v>282.0750855584359</v>
+        <v>9.242488897362243</v>
       </c>
       <c r="F4">
-        <v>242.3841067204412</v>
+        <v>7.36037427183278</v>
       </c>
     </row>
     <row r="5">
@@ -477,16 +478,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>276.9253667971411</v>
+        <v>8.370781447540748</v>
       </c>
       <c r="D5">
-        <v>302.8814979573844</v>
+        <v>9.24383196954601</v>
       </c>
       <c r="E5">
-        <v>299.1716863251737</v>
+        <v>9.16014301511729</v>
       </c>
       <c r="F5">
-        <v>249.0417409343535</v>
+        <v>7.569176864239051</v>
       </c>
     </row>
     <row r="6">
@@ -501,16 +502,16 @@
         </is>
       </c>
       <c r="C6">
-        <v>281.75277065021</v>
+        <v>8.524089947233874</v>
       </c>
       <c r="D6">
-        <v>310.4023236802593</v>
+        <v>9.360291513955996</v>
       </c>
       <c r="E6">
-        <v>313.071787942761</v>
+        <v>9.161606373198923</v>
       </c>
       <c r="F6">
-        <v>245.4707178806125</v>
+        <v>7.493706800944021</v>
       </c>
     </row>
     <row r="7">
@@ -525,16 +526,16 @@
         </is>
       </c>
       <c r="C7">
-        <v>281.3378135802807</v>
+        <v>8.5204169589766</v>
       </c>
       <c r="D7">
-        <v>301.8516707742145</v>
+        <v>9.311177348716877</v>
       </c>
       <c r="E7">
-        <v>310.1191026937369</v>
+        <v>9.273481183690874</v>
       </c>
       <c r="F7">
-        <v>250.89540907324</v>
+        <v>7.597025405521714</v>
       </c>
     </row>
     <row r="8">
@@ -549,16 +550,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>267.5370307571334</v>
+        <v>8.143231959149571</v>
       </c>
       <c r="D8">
-        <v>305.7288448576673</v>
+        <v>9.20839023986181</v>
       </c>
       <c r="E8">
-        <v>292.4658907986216</v>
+        <v>8.950988118368501</v>
       </c>
       <c r="F8">
-        <v>226.8540984107156</v>
+        <v>7.03702528061625</v>
       </c>
     </row>
     <row r="9">
@@ -573,16 +574,16 @@
         </is>
       </c>
       <c r="C9">
-        <v>257.8531382621302</v>
+        <v>7.830087698086643</v>
       </c>
       <c r="D9">
-        <v>279.7129428325654</v>
+        <v>9.136640989338323</v>
       </c>
       <c r="E9">
-        <v>311.2878850689018</v>
+        <v>9.062227365590418</v>
       </c>
       <c r="F9">
-        <v>218.3478731477939</v>
+        <v>6.767542067250496</v>
       </c>
     </row>
     <row r="10">
@@ -597,16 +598,16 @@
         </is>
       </c>
       <c r="C10">
-        <v>290.5222030618463</v>
+        <v>8.778295407651038</v>
       </c>
       <c r="D10">
-        <v>288.6241433641001</v>
+        <v>9.130466791084098</v>
       </c>
       <c r="E10">
-        <v>307.0217814101305</v>
+        <v>9.104510132675669</v>
       </c>
       <c r="F10">
-        <v>281.7244672883672</v>
+        <v>8.526982569134695</v>
       </c>
     </row>
     <row r="11">
@@ -621,16 +622,16 @@
         </is>
       </c>
       <c r="C11">
-        <v>294.3677377907675</v>
+        <v>8.882885889710566</v>
       </c>
       <c r="D11">
-        <v>288.6107031428647</v>
+        <v>9.008457882168678</v>
       </c>
       <c r="E11">
-        <v>302.5791440479015</v>
+        <v>8.979976547382032</v>
       </c>
       <c r="F11">
-        <v>291.8315547667883</v>
+        <v>8.751921573325278</v>
       </c>
     </row>
     <row r="12">
@@ -645,16 +646,16 @@
         </is>
       </c>
       <c r="C12">
-        <v>287.5826092361318</v>
+        <v>8.686281087525341</v>
       </c>
       <c r="D12">
-        <v>295.1149860868404</v>
+        <v>9.300229852799733</v>
       </c>
       <c r="E12">
-        <v>319.2025402746174</v>
+        <v>9.358259972315741</v>
       </c>
       <c r="F12">
-        <v>267.6932825306222</v>
+        <v>8.14404095450565</v>
       </c>
     </row>
     <row r="13">
@@ -669,16 +670,16 @@
         </is>
       </c>
       <c r="C13">
-        <v>282.7572622934235</v>
+        <v>8.533506715999494</v>
       </c>
       <c r="D13">
-        <v>298.8818367721125</v>
+        <v>9.305059344056957</v>
       </c>
       <c r="E13">
-        <v>305.3591864591924</v>
+        <v>9.248184402830939</v>
       </c>
       <c r="F13">
-        <v>257.2354397257101</v>
+        <v>7.796162286391893</v>
       </c>
     </row>
     <row r="14">
@@ -693,16 +694,16 @@
         </is>
       </c>
       <c r="C14">
-        <v>275.1637028333956</v>
+        <v>8.331140954873</v>
       </c>
       <c r="D14">
-        <v>288.969553614455</v>
+        <v>9.252050435790965</v>
       </c>
       <c r="E14">
-        <v>306.1660150484632</v>
+        <v>9.316667678918161</v>
       </c>
       <c r="F14">
-        <v>247.7355067550817</v>
+        <v>7.51529038029804</v>
       </c>
     </row>
     <row r="15">
@@ -717,16 +718,16 @@
         </is>
       </c>
       <c r="C15">
-        <v>275.2985681540878</v>
+        <v>8.345062121983833</v>
       </c>
       <c r="D15">
-        <v>313.6625218561315</v>
+        <v>9.440678155623997</v>
       </c>
       <c r="E15">
-        <v>312.1785687686193</v>
+        <v>9.399439934357506</v>
       </c>
       <c r="F15">
-        <v>231.7828018954084</v>
+        <v>7.044966402638935</v>
       </c>
     </row>
     <row r="16">
@@ -741,16 +742,16 @@
         </is>
       </c>
       <c r="C16">
-        <v>241.4119331922571</v>
+        <v>7.384740369530949</v>
       </c>
       <c r="D16">
-        <v>269.814807328542</v>
+        <v>8.772250951463702</v>
       </c>
       <c r="E16">
-        <v>277.5728277908565</v>
+        <v>8.652572385658148</v>
       </c>
       <c r="F16">
-        <v>203.9488129067139</v>
+        <v>6.377853988573865</v>
       </c>
     </row>
     <row r="18">
@@ -760,16 +761,16 @@
         </is>
       </c>
       <c r="C18">
-        <v>274.7799462102494</v>
+        <v>8.329650877336416</v>
       </c>
       <c r="D18">
-        <v>302.7228182854265</v>
+        <v>9.271431537810926</v>
       </c>
       <c r="E18">
-        <v>296.0864360194738</v>
+        <v>9.141124170538433</v>
       </c>
       <c r="F18">
-        <v>244.5556767342251</v>
+        <v>7.475533778346163</v>
       </c>
     </row>
     <row r="19">
@@ -779,16 +780,16 @@
         </is>
       </c>
       <c r="C19">
-        <v>275.619644353005</v>
+        <v>8.346500030670107</v>
       </c>
       <c r="D19">
-        <v>290.4239368747014</v>
+        <v>9.168229300290808</v>
       </c>
       <c r="E19">
-        <v>305.1709936085854</v>
+        <v>9.140229802466077</v>
       </c>
       <c r="F19">
-        <v>250.0374673770607</v>
+        <v>7.615595027764857</v>
       </c>
     </row>
     <row r="20">
@@ -798,16 +799,16 @@
         </is>
       </c>
       <c r="C20">
-        <v>275.1997952816272</v>
+        <v>8.338075454003262</v>
       </c>
       <c r="D20">
-        <v>296.573377580064</v>
+        <v>9.219830419050867</v>
       </c>
       <c r="E20">
-        <v>300.6287148140296</v>
+        <v>9.140676986502255</v>
       </c>
       <c r="F20">
-        <v>247.2965720556429</v>
+        <v>7.54556440305551</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +843,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>248</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +853,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -861,39 +862,13 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Aid.recipient</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Volunteer</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Other</t>
+          <t>total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Respondents</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>97</v>
-      </c>
-      <c r="C2">
-        <v>63</v>
-      </c>
-      <c r="D2">
-        <v>115</v>
+      <c r="A2">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -917,17 +892,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Age.18.to.30</t>
+          <t>Aid.recipient</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Age.30.to.45</t>
+          <t>Volunteer</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Age.45.and.older</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -938,13 +913,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>482</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>548</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -953,6 +928,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Age.18.to.30</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Age.30.to.45</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Age.45.and.older</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Respondents</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>389</v>
+      </c>
+      <c r="C2">
+        <v>394</v>
+      </c>
+      <c r="D2">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -984,273 +1010,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>613</v>
       </c>
       <c r="C2">
-        <v>107</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F859FA712150B479D9EB3F3F84C330B" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88eaf3757d26accc65a513324c17f08e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79c0d9b1-af1f-434c-89cc-ab4c585bfb03" xmlns:ns3="cdc5b366-51ac-4812-b843-b15bce8615f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2fa8aace0e71d763cd1a25b411f1052a" ns2:_="" ns3:_="">
-    <xsd:import namespace="79c0d9b1-af1f-434c-89cc-ab4c585bfb03"/>
-    <xsd:import namespace="cdc5b366-51ac-4812-b843-b15bce8615f0"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="79c0d9b1-af1f-434c-89cc-ab4c585bfb03" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="214f832c-f6f1-485d-8901-6765a4832c56" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cdc5b366-51ac-4812-b843-b15bce8615f0" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{66cec8ff-de90-41ee-bd7b-a0e151b57e6f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cdc5b366-51ac-4812-b843-b15bce8615f0">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F4A5AA-2991-4CC8-8139-FAE4E1EA054D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9993412-4CE1-490C-82FF-AD3DBB4D6654}"/>
 </file>